--- a/Racismo/Base_estados_mexicanos_completa.xlsx
+++ b/Racismo/Base_estados_mexicanos_completa.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2107</v>
+        <v>1123</v>
       </c>
       <c r="D2" t="n">
-        <v>464</v>
+        <v>372</v>
       </c>
       <c r="E2" t="n">
-        <v>0.220218319886094</v>
+        <v>0.3312555654496883</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>304</v>
+        <v>176</v>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2664473684210527</v>
+        <v>0.3693181818181818</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>266</v>
+        <v>154</v>
       </c>
       <c r="D4" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3230769230769231</v>
       </c>
     </row>
     <row r="6">
@@ -537,17 +537,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Veracruz</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.27</v>
+        <v>0.4464285714285715</v>
       </c>
     </row>
     <row r="7">
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2473118279569892</v>
+        <v>0.1923076923076923</v>
       </c>
     </row>
     <row r="8">
@@ -575,17 +575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Querétaro</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="9">
@@ -594,17 +594,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Guanajuato</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -613,17 +613,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Baja California</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2463768115942029</v>
+        <v>0.2978723404255319</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +632,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sonora</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2238805970149254</v>
+        <v>0.4222222222222222</v>
       </c>
     </row>
     <row r="12">
@@ -651,17 +651,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sinaloa</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.3255813953488372</v>
       </c>
     </row>
     <row r="13">
@@ -670,17 +670,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tamaulipas</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1864406779661017</v>
+        <v>0.2702702702702703</v>
       </c>
     </row>
     <row r="14">
@@ -689,17 +689,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chihuahua</t>
+          <t>Coahuila</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -708,17 +708,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Quintana Roo</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2641509433962264</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="16">
@@ -727,17 +727,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Morelos</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3409090909090909</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="17">
@@ -746,17 +746,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Coahuila</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
@@ -765,17 +765,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aguascalientes</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="19">
@@ -784,17 +784,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Yucatán</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="20">
@@ -803,17 +803,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Guerrero</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="21">
@@ -822,17 +822,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tabasco</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
         <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="22">
@@ -841,17 +841,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Durango</t>
+          <t>Michoacán</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
@@ -860,17 +860,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chiapas</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>0.12</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="24">
@@ -879,17 +879,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>San Luis Potosí</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="25">
@@ -898,17 +898,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Oaxaca</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="26">
@@ -917,17 +917,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hidalgo</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
         <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="27">
@@ -936,17 +936,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Michoacán</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28">
@@ -955,17 +955,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Baja California Sur</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0625</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -974,17 +974,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Colima</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
@@ -993,17 +993,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Zacatecas</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="32">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nayarit</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33">

--- a/Racismo/Base_estados_mexicanos_completa.xlsx
+++ b/Racismo/Base_estados_mexicanos_completa.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1123</v>
+        <v>906</v>
       </c>
       <c r="D2" t="n">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3312555654496883</v>
+        <v>0.380794701986755</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D3" t="n">
         <v>65</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3693181818181818</v>
+        <v>0.4220779220779221</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3230769230769231</v>
+        <v>0.4426229508196721</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4464285714285715</v>
+        <v>0.462962962962963</v>
       </c>
     </row>
     <row r="7">
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Querétaro</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="8">
@@ -575,17 +575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Guanajuato</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>0.46</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="9">
@@ -594,17 +594,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Baja California</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2978723404255319</v>
+        <v>0.4871794871794872</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +632,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Veracruz</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="12">
@@ -651,17 +651,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chihuahua</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3255813953488372</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="13">
@@ -670,17 +670,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sonora</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="14">
@@ -689,17 +689,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Coahuila</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4814814814814815</v>
       </c>
     </row>
     <row r="16">
@@ -727,17 +727,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Quintana Roo</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="17">
@@ -746,17 +746,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Yucatán</t>
+          <t>Michoacán</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
@@ -784,17 +784,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aguascalientes</t>
+          <t>Coahuila</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="20">
@@ -803,17 +803,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tabasco</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="21">
@@ -822,17 +822,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Morelos</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="22">
@@ -841,17 +841,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Michoacán</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="23">
@@ -860,17 +860,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Oaxaca</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="24">
@@ -879,17 +879,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chiapas</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26">
@@ -917,17 +917,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Guerrero</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="27">
@@ -936,17 +936,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Zacatecas</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="28">
@@ -955,17 +955,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Colima</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="29">
@@ -981,10 +981,10 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="30">
@@ -993,17 +993,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nayarit</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31">
@@ -1012,17 +1012,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Campeche</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Baja California Sur</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Racismo/Base_estados_mexicanos_completa.xlsx
+++ b/Racismo/Base_estados_mexicanos_completa.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>906</v>
+        <v>864</v>
       </c>
       <c r="D2" t="n">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E2" t="n">
-        <v>0.380794701986755</v>
+        <v>0.3831018518518519</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4220779220779221</v>
+        <v>0.4803149606299212</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>119</v>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.361344537815126</v>
       </c>
     </row>
     <row r="5">
@@ -518,7 +518,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -537,17 +537,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>0.462962962962963</v>
+        <v>0.3934426229508197</v>
       </c>
     </row>
     <row r="7">
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Veracruz</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.456140350877193</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -594,17 +594,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Quintana Roo</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="10">
@@ -613,17 +613,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sinaloa</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4871794871794872</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +632,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Guanajuato</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="12">
@@ -651,17 +651,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sonora</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -689,17 +689,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Querétaro</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="15">
@@ -708,17 +708,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tamaulipas</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16">
@@ -727,17 +727,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tabasco</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="17">
@@ -746,17 +746,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Michoacán</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -765,17 +765,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>San Luis Potosí</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -803,17 +803,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Morelos</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
@@ -822,17 +822,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Yucatán</t>
+          <t>Michoacán</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -841,17 +841,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Oaxaca</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="23">
@@ -860,17 +860,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aguascalientes</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="24">
@@ -879,17 +879,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Baja California Sur</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>13</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="25">
@@ -898,17 +898,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hidalgo</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="26">
@@ -917,17 +917,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chiapas</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="27">
@@ -936,17 +936,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Guerrero</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
@@ -955,17 +955,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Campeche</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29">
@@ -974,17 +974,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Durango</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
@@ -993,7 +993,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Zacatecas</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1012,17 +1012,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Colima</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tlaxcala</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Racismo/Base_estados_mexicanos_completa.xlsx
+++ b/Racismo/Base_estados_mexicanos_completa.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>864</v>
+        <v>783</v>
       </c>
       <c r="D2" t="n">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3831018518518519</v>
+        <v>0.3805874840357599</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4803149606299212</v>
+        <v>0.4369747899159664</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
-        <v>0.361344537815126</v>
+        <v>0.4173913043478261</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4426229508196721</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.4181818181818182</v>
       </c>
     </row>
     <row r="7">
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Guanajuato</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0.456140350877193</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="8">
@@ -575,17 +575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Baja California</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4</v>
+        <v>0.3095238095238095</v>
       </c>
     </row>
     <row r="9">
@@ -594,17 +594,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sonora</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3714285714285714</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="10">
@@ -613,17 +613,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Veracruz</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +632,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Querétaro</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4375</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -670,17 +670,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chihuahua</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -689,17 +689,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Guerrero</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>0.16</v>
+        <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="15">
@@ -708,17 +708,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aguascalientes</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="16">
@@ -727,17 +727,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tamaulipas</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -746,17 +746,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Yucatán</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="18">
@@ -765,17 +765,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Quintana Roo</t>
+          <t>Coahuila</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>0.55</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="19">
@@ -784,17 +784,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Coahuila</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="20">
@@ -803,17 +803,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Baja California Sur</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21">
@@ -822,17 +822,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Michoacán</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -841,7 +841,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chiapas</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -860,17 +860,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hidalgo</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="24">
@@ -879,17 +879,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Oaxaca</t>
+          <t>Michoacán</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25">
@@ -898,17 +898,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>San Luis Potosí</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="26">
@@ -917,17 +917,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tabasco</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="27">
@@ -936,17 +936,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Morelos</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28">
@@ -955,17 +955,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Durango</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31">
@@ -1019,10 +1019,10 @@
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nayarit</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Zacatecas</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
